--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il23a-Il12rb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,7 +79,13 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Il12rb1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.80137443725617</v>
+        <v>2.048765</v>
       </c>
       <c r="H2">
-        <v>1.80137443725617</v>
+        <v>4.09753</v>
       </c>
       <c r="I2">
-        <v>0.3855299307425345</v>
+        <v>0.2683787266490384</v>
       </c>
       <c r="J2">
-        <v>0.3855299307425345</v>
+        <v>0.2009292745410326</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.414702955315478</v>
+        <v>0.1353735</v>
       </c>
       <c r="N2">
-        <v>0.414702955315478</v>
+        <v>0.270747</v>
       </c>
       <c r="O2">
-        <v>0.1687559134340409</v>
+        <v>0.04105055407111536</v>
       </c>
       <c r="P2">
-        <v>0.1687559134340409</v>
+        <v>0.02891735738885385</v>
       </c>
       <c r="Q2">
-        <v>0.7470353027598898</v>
+        <v>0.2773484887275</v>
       </c>
       <c r="R2">
-        <v>0.7470353027598898</v>
+        <v>1.10939395491</v>
       </c>
       <c r="S2">
-        <v>0.06506045561861895</v>
+        <v>0.01101709542984344</v>
       </c>
       <c r="T2">
-        <v>0.06506045561861895</v>
+        <v>0.005810343641786172</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.80137443725617</v>
+        <v>2.048765</v>
       </c>
       <c r="H3">
-        <v>1.80137443725617</v>
+        <v>4.09753</v>
       </c>
       <c r="I3">
-        <v>0.3855299307425345</v>
+        <v>0.2683787266490384</v>
       </c>
       <c r="J3">
-        <v>0.3855299307425345</v>
+        <v>0.2009292745410326</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.34777749289724</v>
+        <v>0.4661060000000001</v>
       </c>
       <c r="N3">
-        <v>1.34777749289724</v>
+        <v>1.398318</v>
       </c>
       <c r="O3">
-        <v>0.5484538246096902</v>
+        <v>0.1413416182330463</v>
       </c>
       <c r="P3">
-        <v>0.5484538246096902</v>
+        <v>0.1493485111534656</v>
       </c>
       <c r="Q3">
-        <v>2.427851922814297</v>
+        <v>0.9549416590900002</v>
       </c>
       <c r="R3">
-        <v>2.427851922814297</v>
+        <v>5.72964995454</v>
       </c>
       <c r="S3">
-        <v>0.211445365017252</v>
+        <v>0.03793308352389949</v>
       </c>
       <c r="T3">
-        <v>0.211445365017252</v>
+        <v>0.03000848799984915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,382 +652,382 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.80137443725617</v>
+        <v>2.048765</v>
       </c>
       <c r="H4">
-        <v>1.80137443725617</v>
+        <v>4.09753</v>
       </c>
       <c r="I4">
-        <v>0.3855299307425345</v>
+        <v>0.2683787266490384</v>
       </c>
       <c r="J4">
-        <v>0.3855299307425345</v>
+        <v>0.2009292745410326</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.694932432181347</v>
+        <v>0.1538896666666667</v>
       </c>
       <c r="N4">
-        <v>0.694932432181347</v>
+        <v>0.461669</v>
       </c>
       <c r="O4">
-        <v>0.2827902619562689</v>
+        <v>0.04666538194318622</v>
       </c>
       <c r="P4">
-        <v>0.2827902619562689</v>
+        <v>0.04930893959436215</v>
       </c>
       <c r="Q4">
-        <v>1.251833518951736</v>
+        <v>0.3152837629283333</v>
       </c>
       <c r="R4">
-        <v>1.251833518951736</v>
+        <v>1.89170257757</v>
       </c>
       <c r="S4">
-        <v>0.1090241101066635</v>
+        <v>0.01252399578450335</v>
       </c>
       <c r="T4">
-        <v>0.1090241101066635</v>
+        <v>0.009907609461082783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.28485840453491</v>
+        <v>2.048765</v>
       </c>
       <c r="H5">
-        <v>1.28485840453491</v>
+        <v>4.09753</v>
       </c>
       <c r="I5">
-        <v>0.2749852343129838</v>
+        <v>0.2683787266490384</v>
       </c>
       <c r="J5">
-        <v>0.2749852343129838</v>
+        <v>0.2009292745410326</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.414702955315478</v>
+        <v>1.407309</v>
       </c>
       <c r="N5">
-        <v>0.414702955315478</v>
+        <v>4.221927</v>
       </c>
       <c r="O5">
-        <v>0.1687559134340409</v>
+        <v>0.4267512784944415</v>
       </c>
       <c r="P5">
-        <v>0.1687559134340409</v>
+        <v>0.4509264070466212</v>
       </c>
       <c r="Q5">
-        <v>0.5328345775225571</v>
+        <v>2.883245423385</v>
       </c>
       <c r="R5">
-        <v>0.5328345775225571</v>
+        <v>17.29947254031</v>
       </c>
       <c r="S5">
-        <v>0.04640538439736137</v>
+        <v>0.1145309647181874</v>
       </c>
       <c r="T5">
-        <v>0.04640538439736137</v>
+        <v>0.09060431583927196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.28485840453491</v>
+        <v>2.048765</v>
       </c>
       <c r="H6">
-        <v>1.28485840453491</v>
+        <v>4.09753</v>
       </c>
       <c r="I6">
-        <v>0.2749852343129838</v>
+        <v>0.2683787266490384</v>
       </c>
       <c r="J6">
-        <v>0.2749852343129838</v>
+        <v>0.2009292745410326</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.34777749289724</v>
+        <v>0.7400273333333334</v>
       </c>
       <c r="N6">
-        <v>1.34777749289724</v>
+        <v>2.220082</v>
       </c>
       <c r="O6">
-        <v>0.5484538246096902</v>
+        <v>0.224405308728099</v>
       </c>
       <c r="P6">
-        <v>0.5484538246096902</v>
+        <v>0.2371176952156863</v>
       </c>
       <c r="Q6">
-        <v>1.731703239192009</v>
+        <v>1.516142099576667</v>
       </c>
       <c r="R6">
-        <v>1.731703239192009</v>
+        <v>9.09685259746</v>
       </c>
       <c r="S6">
-        <v>0.1508167034701478</v>
+        <v>0.06022561100973156</v>
       </c>
       <c r="T6">
-        <v>0.1508167034701478</v>
+        <v>0.04764388648052953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.28485840453491</v>
+        <v>2.048765</v>
       </c>
       <c r="H7">
-        <v>1.28485840453491</v>
+        <v>4.09753</v>
       </c>
       <c r="I7">
-        <v>0.2749852343129838</v>
+        <v>0.2683787266490384</v>
       </c>
       <c r="J7">
-        <v>0.2749852343129838</v>
+        <v>0.2009292745410326</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.694932432181347</v>
+        <v>0.395021</v>
       </c>
       <c r="N7">
-        <v>0.694932432181347</v>
+        <v>0.790042</v>
       </c>
       <c r="O7">
-        <v>0.2827902619562689</v>
+        <v>0.1197858585301116</v>
       </c>
       <c r="P7">
-        <v>0.2827902619562689</v>
+        <v>0.0843810896010108</v>
       </c>
       <c r="Q7">
-        <v>0.8928897760720902</v>
+        <v>0.809305199065</v>
       </c>
       <c r="R7">
-        <v>0.8928897760720902</v>
+        <v>3.23722079626</v>
       </c>
       <c r="S7">
-        <v>0.07776314644547469</v>
+        <v>0.0321479761828732</v>
       </c>
       <c r="T7">
-        <v>0.07776314644547469</v>
+        <v>0.01695463111851297</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.17303227045275</v>
+        <v>0.6006036666666666</v>
       </c>
       <c r="H8">
-        <v>1.17303227045275</v>
+        <v>1.801811</v>
       </c>
       <c r="I8">
-        <v>0.2510522191462045</v>
+        <v>0.07867629878524064</v>
       </c>
       <c r="J8">
-        <v>0.2510522191462045</v>
+        <v>0.08835483256743758</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.414702955315478</v>
+        <v>0.1353735</v>
       </c>
       <c r="N8">
-        <v>0.414702955315478</v>
+        <v>0.270747</v>
       </c>
       <c r="O8">
-        <v>0.1687559134340409</v>
+        <v>0.04105055407111536</v>
       </c>
       <c r="P8">
-        <v>0.1687559134340409</v>
+        <v>0.02891735738885385</v>
       </c>
       <c r="Q8">
-        <v>0.4864599492371805</v>
+        <v>0.0813058204695</v>
       </c>
       <c r="R8">
-        <v>0.4864599492371805</v>
+        <v>0.487834922817</v>
       </c>
       <c r="S8">
-        <v>0.04236654656166076</v>
+        <v>0.003229705657398749</v>
       </c>
       <c r="T8">
-        <v>0.04236654656166076</v>
+        <v>0.002554988270384936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.17303227045275</v>
+        <v>0.6006036666666666</v>
       </c>
       <c r="H9">
-        <v>1.17303227045275</v>
+        <v>1.801811</v>
       </c>
       <c r="I9">
-        <v>0.2510522191462045</v>
+        <v>0.07867629878524064</v>
       </c>
       <c r="J9">
-        <v>0.2510522191462045</v>
+        <v>0.08835483256743758</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.34777749289724</v>
+        <v>0.4661060000000001</v>
       </c>
       <c r="N9">
-        <v>1.34777749289724</v>
+        <v>1.398318</v>
       </c>
       <c r="O9">
-        <v>0.5484538246096902</v>
+        <v>0.1413416182330463</v>
       </c>
       <c r="P9">
-        <v>0.5484538246096902</v>
+        <v>0.1493485111534656</v>
       </c>
       <c r="Q9">
-        <v>1.580986492558365</v>
+        <v>0.2799449726553334</v>
       </c>
       <c r="R9">
-        <v>1.580986492558365</v>
+        <v>2.519504753898</v>
       </c>
       <c r="S9">
-        <v>0.1376905497674859</v>
+        <v>0.01112023538689257</v>
       </c>
       <c r="T9">
-        <v>0.1376905497674859</v>
+        <v>0.01319566269716053</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,235 +1036,1723 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.17303227045275</v>
+        <v>0.6006036666666666</v>
       </c>
       <c r="H10">
-        <v>1.17303227045275</v>
+        <v>1.801811</v>
       </c>
       <c r="I10">
-        <v>0.2510522191462045</v>
+        <v>0.07867629878524064</v>
       </c>
       <c r="J10">
-        <v>0.2510522191462045</v>
+        <v>0.08835483256743758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.694932432181347</v>
+        <v>0.1538896666666667</v>
       </c>
       <c r="N10">
-        <v>0.694932432181347</v>
+        <v>0.461669</v>
       </c>
       <c r="O10">
-        <v>0.2827902619562689</v>
+        <v>0.04666538194318622</v>
       </c>
       <c r="P10">
-        <v>0.2827902619562689</v>
+        <v>0.04930893959436215</v>
       </c>
       <c r="Q10">
-        <v>0.8151781687329372</v>
+        <v>0.09242669806211111</v>
       </c>
       <c r="R10">
-        <v>0.8151781687329372</v>
+        <v>0.831840282559</v>
       </c>
       <c r="S10">
-        <v>0.07099512281705779</v>
+        <v>0.003671459532689492</v>
       </c>
       <c r="T10">
-        <v>0.07099512281705779</v>
+        <v>0.00435668310193776</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.413198148356209</v>
+        <v>0.6006036666666666</v>
       </c>
       <c r="H11">
-        <v>0.413198148356209</v>
+        <v>1.801811</v>
       </c>
       <c r="I11">
-        <v>0.08843261579827724</v>
+        <v>0.07867629878524064</v>
       </c>
       <c r="J11">
-        <v>0.08843261579827724</v>
+        <v>0.08835483256743758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.414702955315478</v>
+        <v>1.407309</v>
       </c>
       <c r="N11">
-        <v>0.414702955315478</v>
+        <v>4.221927</v>
       </c>
       <c r="O11">
-        <v>0.1687559134340409</v>
+        <v>0.4267512784944415</v>
       </c>
       <c r="P11">
-        <v>0.1687559134340409</v>
+        <v>0.4509264070466212</v>
       </c>
       <c r="Q11">
-        <v>0.1713544932542032</v>
+        <v>0.8452349455329999</v>
       </c>
       <c r="R11">
-        <v>0.1713544932542032</v>
+        <v>7.607114509797</v>
       </c>
       <c r="S11">
-        <v>0.01492352685639988</v>
+        <v>0.03357521109381212</v>
       </c>
       <c r="T11">
-        <v>0.01492352685639988</v>
+        <v>0.03984152719484042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.413198148356209</v>
+        <v>0.6006036666666666</v>
       </c>
       <c r="H12">
-        <v>0.413198148356209</v>
+        <v>1.801811</v>
       </c>
       <c r="I12">
-        <v>0.08843261579827724</v>
+        <v>0.07867629878524064</v>
       </c>
       <c r="J12">
-        <v>0.08843261579827724</v>
+        <v>0.08835483256743758</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.34777749289724</v>
+        <v>0.7400273333333334</v>
       </c>
       <c r="N12">
-        <v>1.34777749289724</v>
+        <v>2.220082</v>
       </c>
       <c r="O12">
-        <v>0.5484538246096902</v>
+        <v>0.224405308728099</v>
       </c>
       <c r="P12">
-        <v>0.5484538246096902</v>
+        <v>0.2371176952156863</v>
       </c>
       <c r="Q12">
-        <v>0.5568991644613132</v>
+        <v>0.4444631298335556</v>
       </c>
       <c r="R12">
-        <v>0.5568991644613132</v>
+        <v>4.000168168502</v>
       </c>
       <c r="S12">
-        <v>0.04850120635480446</v>
+        <v>0.01765537911848609</v>
       </c>
       <c r="T12">
-        <v>0.04850120635480446</v>
+        <v>0.02095049425955866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.6006036666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.801811</v>
+      </c>
+      <c r="I13">
+        <v>0.07867629878524064</v>
+      </c>
+      <c r="J13">
+        <v>0.08835483256743758</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.395021</v>
+      </c>
+      <c r="N13">
+        <v>0.790042</v>
+      </c>
+      <c r="O13">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P13">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q13">
+        <v>0.2372510610103333</v>
+      </c>
+      <c r="R13">
+        <v>1.423506366062</v>
+      </c>
+      <c r="S13">
+        <v>0.009424307995961625</v>
+      </c>
+      <c r="T13">
+        <v>0.007455477043555258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.313248333333333</v>
+      </c>
+      <c r="H14">
+        <v>3.939745</v>
+      </c>
+      <c r="I14">
+        <v>0.1720294496801595</v>
+      </c>
+      <c r="J14">
+        <v>0.1931920217122658</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.1353735</v>
+      </c>
+      <c r="N14">
+        <v>0.270747</v>
+      </c>
+      <c r="O14">
+        <v>0.04105055407111536</v>
+      </c>
+      <c r="P14">
+        <v>0.02891735738885385</v>
+      </c>
+      <c r="Q14">
+        <v>0.1777790232525</v>
+      </c>
+      <c r="R14">
+        <v>1.066674139515</v>
+      </c>
+      <c r="S14">
+        <v>0.007061904225919608</v>
+      </c>
+      <c r="T14">
+        <v>0.005586602736528802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.313248333333333</v>
+      </c>
+      <c r="H15">
+        <v>3.939745</v>
+      </c>
+      <c r="I15">
+        <v>0.1720294496801595</v>
+      </c>
+      <c r="J15">
+        <v>0.1931920217122658</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4661060000000001</v>
+      </c>
+      <c r="N15">
+        <v>1.398318</v>
+      </c>
+      <c r="O15">
+        <v>0.1413416182330463</v>
+      </c>
+      <c r="P15">
+        <v>0.1493485111534656</v>
+      </c>
+      <c r="Q15">
+        <v>0.6121129276566668</v>
+      </c>
+      <c r="R15">
+        <v>5.50901634891</v>
+      </c>
+      <c r="S15">
+        <v>0.02431492080153417</v>
+      </c>
+      <c r="T15">
+        <v>0.02885294080945489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.313248333333333</v>
+      </c>
+      <c r="H16">
+        <v>3.939745</v>
+      </c>
+      <c r="I16">
+        <v>0.1720294496801595</v>
+      </c>
+      <c r="J16">
+        <v>0.1931920217122658</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.461669</v>
+      </c>
+      <c r="O16">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P16">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q16">
+        <v>0.2020953482672222</v>
+      </c>
+      <c r="R16">
+        <v>1.818858134405</v>
+      </c>
+      <c r="S16">
+        <v>0.008027819974800779</v>
+      </c>
+      <c r="T16">
+        <v>0.009526093728722812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.313248333333333</v>
+      </c>
+      <c r="H17">
+        <v>3.939745</v>
+      </c>
+      <c r="I17">
+        <v>0.1720294496801595</v>
+      </c>
+      <c r="J17">
+        <v>0.1931920217122658</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.407309</v>
+      </c>
+      <c r="N17">
+        <v>4.221927</v>
+      </c>
+      <c r="O17">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P17">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q17">
+        <v>1.848146198735</v>
+      </c>
+      <c r="R17">
+        <v>16.633315788615</v>
+      </c>
+      <c r="S17">
+        <v>0.07341378758970328</v>
+      </c>
+      <c r="T17">
+        <v>0.08711538422078484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.313248333333333</v>
+      </c>
+      <c r="H18">
+        <v>3.939745</v>
+      </c>
+      <c r="I18">
+        <v>0.1720294496801595</v>
+      </c>
+      <c r="J18">
+        <v>0.1931920217122658</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N18">
+        <v>2.220082</v>
+      </c>
+      <c r="O18">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P18">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q18">
+        <v>0.9718396621211112</v>
+      </c>
+      <c r="R18">
+        <v>8.74655695909</v>
+      </c>
+      <c r="S18">
+        <v>0.03860432176580117</v>
+      </c>
+      <c r="T18">
+        <v>0.04580924692247129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.313248333333333</v>
+      </c>
+      <c r="H19">
+        <v>3.939745</v>
+      </c>
+      <c r="I19">
+        <v>0.1720294496801595</v>
+      </c>
+      <c r="J19">
+        <v>0.1931920217122658</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.5</v>
+      </c>
+      <c r="M19">
+        <v>0.395021</v>
+      </c>
+      <c r="N19">
+        <v>0.790042</v>
+      </c>
+      <c r="O19">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P19">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q19">
+        <v>0.5187606698816667</v>
+      </c>
+      <c r="R19">
+        <v>3.11256401929</v>
+      </c>
+      <c r="S19">
+        <v>0.02060669532240054</v>
+      </c>
+      <c r="T19">
+        <v>0.01630175329430312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.476900333333333</v>
+      </c>
+      <c r="H20">
+        <v>4.430701</v>
+      </c>
+      <c r="I20">
+        <v>0.1934671037661911</v>
+      </c>
+      <c r="J20">
+        <v>0.2172668748339189</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.1353735</v>
+      </c>
+      <c r="N20">
+        <v>0.270747</v>
+      </c>
+      <c r="O20">
+        <v>0.04105055407111536</v>
+      </c>
+      <c r="P20">
+        <v>0.02891735738885385</v>
+      </c>
+      <c r="Q20">
+        <v>0.1999331672745</v>
+      </c>
+      <c r="R20">
+        <v>1.199599003647</v>
+      </c>
+      <c r="S20">
+        <v>0.007941931804136113</v>
+      </c>
+      <c r="T20">
+        <v>0.006282783868331808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.476900333333333</v>
+      </c>
+      <c r="H21">
+        <v>4.430701</v>
+      </c>
+      <c r="I21">
+        <v>0.1934671037661911</v>
+      </c>
+      <c r="J21">
+        <v>0.2172668748339189</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4661060000000001</v>
+      </c>
+      <c r="N21">
+        <v>1.398318</v>
+      </c>
+      <c r="O21">
+        <v>0.1413416182330463</v>
+      </c>
+      <c r="P21">
+        <v>0.1493485111534656</v>
+      </c>
+      <c r="Q21">
+        <v>0.6883921067686667</v>
+      </c>
+      <c r="R21">
+        <v>6.195528960918001</v>
+      </c>
+      <c r="S21">
+        <v>0.02734495352117414</v>
+      </c>
+      <c r="T21">
+        <v>0.03244848427941214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.413198148356209</v>
-      </c>
-      <c r="H13">
-        <v>0.413198148356209</v>
-      </c>
-      <c r="I13">
-        <v>0.08843261579827724</v>
-      </c>
-      <c r="J13">
-        <v>0.08843261579827724</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.694932432181347</v>
-      </c>
-      <c r="N13">
-        <v>0.694932432181347</v>
-      </c>
-      <c r="O13">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="P13">
-        <v>0.2827902619562689</v>
-      </c>
-      <c r="Q13">
-        <v>0.2871447942100094</v>
-      </c>
-      <c r="R13">
-        <v>0.2871447942100094</v>
-      </c>
-      <c r="S13">
-        <v>0.02500788258707291</v>
-      </c>
-      <c r="T13">
-        <v>0.02500788258707291</v>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>1.476900333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.430701</v>
+      </c>
+      <c r="I22">
+        <v>0.1934671037661911</v>
+      </c>
+      <c r="J22">
+        <v>0.2172668748339189</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.461669</v>
+      </c>
+      <c r="O22">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P22">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q22">
+        <v>0.2272796999965556</v>
+      </c>
+      <c r="R22">
+        <v>2.045517299969</v>
+      </c>
+      <c r="S22">
+        <v>0.009028216290691348</v>
+      </c>
+      <c r="T22">
+        <v>0.01071319920704155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>1.476900333333333</v>
+      </c>
+      <c r="H23">
+        <v>4.430701</v>
+      </c>
+      <c r="I23">
+        <v>0.1934671037661911</v>
+      </c>
+      <c r="J23">
+        <v>0.2172668748339189</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1.407309</v>
+      </c>
+      <c r="N23">
+        <v>4.221927</v>
+      </c>
+      <c r="O23">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P23">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q23">
+        <v>2.078455131203</v>
+      </c>
+      <c r="R23">
+        <v>18.706096180827</v>
+      </c>
+      <c r="S23">
+        <v>0.08256233387883882</v>
+      </c>
+      <c r="T23">
+        <v>0.09797137123910701</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>1.476900333333333</v>
+      </c>
+      <c r="H24">
+        <v>4.430701</v>
+      </c>
+      <c r="I24">
+        <v>0.1934671037661911</v>
+      </c>
+      <c r="J24">
+        <v>0.2172668748339189</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N24">
+        <v>2.220082</v>
+      </c>
+      <c r="O24">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P24">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q24">
+        <v>1.092946615275778</v>
+      </c>
+      <c r="R24">
+        <v>9.836519537482001</v>
+      </c>
+      <c r="S24">
+        <v>0.04341504514938328</v>
+      </c>
+      <c r="T24">
+        <v>0.05151782060733385</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>1.476900333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.430701</v>
+      </c>
+      <c r="I25">
+        <v>0.1934671037661911</v>
+      </c>
+      <c r="J25">
+        <v>0.2172668748339189</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.395021</v>
+      </c>
+      <c r="N25">
+        <v>0.790042</v>
+      </c>
+      <c r="O25">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P25">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q25">
+        <v>0.5834066465736667</v>
+      </c>
+      <c r="R25">
+        <v>3.500439879442</v>
+      </c>
+      <c r="S25">
+        <v>0.02317462312196738</v>
+      </c>
+      <c r="T25">
+        <v>0.01833321563269251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.734429333333334</v>
+      </c>
+      <c r="H26">
+        <v>5.203288000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.2272022100839973</v>
+      </c>
+      <c r="J26">
+        <v>0.2551519776714412</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.1353735</v>
+      </c>
+      <c r="N26">
+        <v>0.270747</v>
+      </c>
+      <c r="O26">
+        <v>0.04105055407111536</v>
+      </c>
+      <c r="P26">
+        <v>0.02891735738885385</v>
+      </c>
+      <c r="Q26">
+        <v>0.2347957693560001</v>
+      </c>
+      <c r="R26">
+        <v>1.408774616136</v>
+      </c>
+      <c r="S26">
+        <v>0.009326776610130044</v>
+      </c>
+      <c r="T26">
+        <v>0.007378320926797923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.734429333333334</v>
+      </c>
+      <c r="H27">
+        <v>5.203288000000001</v>
+      </c>
+      <c r="I27">
+        <v>0.2272022100839973</v>
+      </c>
+      <c r="J27">
+        <v>0.2551519776714412</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.4661060000000001</v>
+      </c>
+      <c r="N27">
+        <v>1.398318</v>
+      </c>
+      <c r="O27">
+        <v>0.1413416182330463</v>
+      </c>
+      <c r="P27">
+        <v>0.1493485111534656</v>
+      </c>
+      <c r="Q27">
+        <v>0.808427918842667</v>
+      </c>
+      <c r="R27">
+        <v>7.275851269584002</v>
+      </c>
+      <c r="S27">
+        <v>0.03211312803939674</v>
+      </c>
+      <c r="T27">
+        <v>0.03810656798309203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.734429333333334</v>
+      </c>
+      <c r="H28">
+        <v>5.203288000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2272022100839973</v>
+      </c>
+      <c r="J28">
+        <v>0.2551519776714412</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.461669</v>
+      </c>
+      <c r="O28">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P28">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q28">
+        <v>0.2669107519635556</v>
+      </c>
+      <c r="R28">
+        <v>2.402196767672</v>
+      </c>
+      <c r="S28">
+        <v>0.01060247791190577</v>
+      </c>
+      <c r="T28">
+        <v>0.01258127345438313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.734429333333334</v>
+      </c>
+      <c r="H29">
+        <v>5.203288000000001</v>
+      </c>
+      <c r="I29">
+        <v>0.2272022100839973</v>
+      </c>
+      <c r="J29">
+        <v>0.2551519776714412</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1.407309</v>
+      </c>
+      <c r="N29">
+        <v>4.221927</v>
+      </c>
+      <c r="O29">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P29">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q29">
+        <v>2.440878010664</v>
+      </c>
+      <c r="R29">
+        <v>21.967902095976</v>
+      </c>
+      <c r="S29">
+        <v>0.09695883363010854</v>
+      </c>
+      <c r="T29">
+        <v>0.1150547645422227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.734429333333334</v>
+      </c>
+      <c r="H30">
+        <v>5.203288000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.2272022100839973</v>
+      </c>
+      <c r="J30">
+        <v>0.2551519776714412</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N30">
+        <v>2.220082</v>
+      </c>
+      <c r="O30">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P30">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q30">
+        <v>1.283525114401778</v>
+      </c>
+      <c r="R30">
+        <v>11.551726029616</v>
+      </c>
+      <c r="S30">
+        <v>0.05098538209760583</v>
+      </c>
+      <c r="T30">
+        <v>0.06050104887517641</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.734429333333334</v>
+      </c>
+      <c r="H31">
+        <v>5.203288000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2272022100839973</v>
+      </c>
+      <c r="J31">
+        <v>0.2551519776714412</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0.5</v>
+      </c>
+      <c r="M31">
+        <v>0.395021</v>
+      </c>
+      <c r="N31">
+        <v>0.790042</v>
+      </c>
+      <c r="O31">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P31">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q31">
+        <v>0.6851360096826667</v>
+      </c>
+      <c r="R31">
+        <v>4.110816058096001</v>
+      </c>
+      <c r="S31">
+        <v>0.02721561179485039</v>
+      </c>
+      <c r="T31">
+        <v>0.02153000188976899</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.459911</v>
+      </c>
+      <c r="H32">
+        <v>0.919822</v>
+      </c>
+      <c r="I32">
+        <v>0.06024621103537299</v>
+      </c>
+      <c r="J32">
+        <v>0.04510501867390396</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0.5</v>
+      </c>
+      <c r="M32">
+        <v>0.1353735</v>
+      </c>
+      <c r="N32">
+        <v>0.270747</v>
+      </c>
+      <c r="O32">
+        <v>0.04105055407111536</v>
+      </c>
+      <c r="P32">
+        <v>0.02891735738885385</v>
+      </c>
+      <c r="Q32">
+        <v>0.0622597617585</v>
+      </c>
+      <c r="R32">
+        <v>0.249039047034</v>
+      </c>
+      <c r="S32">
+        <v>0.002473140343687406</v>
+      </c>
+      <c r="T32">
+        <v>0.001304317945024207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.459911</v>
+      </c>
+      <c r="H33">
+        <v>0.919822</v>
+      </c>
+      <c r="I33">
+        <v>0.06024621103537299</v>
+      </c>
+      <c r="J33">
+        <v>0.04510501867390396</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.4661060000000001</v>
+      </c>
+      <c r="N33">
+        <v>1.398318</v>
+      </c>
+      <c r="O33">
+        <v>0.1413416182330463</v>
+      </c>
+      <c r="P33">
+        <v>0.1493485111534656</v>
+      </c>
+      <c r="Q33">
+        <v>0.214367276566</v>
+      </c>
+      <c r="R33">
+        <v>1.286203659396</v>
+      </c>
+      <c r="S33">
+        <v>0.008515296960149233</v>
+      </c>
+      <c r="T33">
+        <v>0.006736367384496817</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.459911</v>
+      </c>
+      <c r="H34">
+        <v>0.919822</v>
+      </c>
+      <c r="I34">
+        <v>0.06024621103537299</v>
+      </c>
+      <c r="J34">
+        <v>0.04510501867390396</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1538896666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.461669</v>
+      </c>
+      <c r="O34">
+        <v>0.04666538194318622</v>
+      </c>
+      <c r="P34">
+        <v>0.04930893959436215</v>
+      </c>
+      <c r="Q34">
+        <v>0.07077555048633334</v>
+      </c>
+      <c r="R34">
+        <v>0.424653302918</v>
+      </c>
+      <c r="S34">
+        <v>0.002811412448595481</v>
+      </c>
+      <c r="T34">
+        <v>0.002224080641194107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.459911</v>
+      </c>
+      <c r="H35">
+        <v>0.919822</v>
+      </c>
+      <c r="I35">
+        <v>0.06024621103537299</v>
+      </c>
+      <c r="J35">
+        <v>0.04510501867390396</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1.407309</v>
+      </c>
+      <c r="N35">
+        <v>4.221927</v>
+      </c>
+      <c r="O35">
+        <v>0.4267512784944415</v>
+      </c>
+      <c r="P35">
+        <v>0.4509264070466212</v>
+      </c>
+      <c r="Q35">
+        <v>0.6472368894989999</v>
+      </c>
+      <c r="R35">
+        <v>3.883421336994</v>
+      </c>
+      <c r="S35">
+        <v>0.02571014758379135</v>
+      </c>
+      <c r="T35">
+        <v>0.02033904401039427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.459911</v>
+      </c>
+      <c r="H36">
+        <v>0.919822</v>
+      </c>
+      <c r="I36">
+        <v>0.06024621103537299</v>
+      </c>
+      <c r="J36">
+        <v>0.04510501867390396</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7400273333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.220082</v>
+      </c>
+      <c r="O36">
+        <v>0.224405308728099</v>
+      </c>
+      <c r="P36">
+        <v>0.2371176952156863</v>
+      </c>
+      <c r="Q36">
+        <v>0.3403467109006667</v>
+      </c>
+      <c r="R36">
+        <v>2.042080265404</v>
+      </c>
+      <c r="S36">
+        <v>0.01351956958709108</v>
+      </c>
+      <c r="T36">
+        <v>0.0106951980706166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.459911</v>
+      </c>
+      <c r="H37">
+        <v>0.919822</v>
+      </c>
+      <c r="I37">
+        <v>0.06024621103537299</v>
+      </c>
+      <c r="J37">
+        <v>0.04510501867390396</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0.5</v>
+      </c>
+      <c r="M37">
+        <v>0.395021</v>
+      </c>
+      <c r="N37">
+        <v>0.790042</v>
+      </c>
+      <c r="O37">
+        <v>0.1197858585301116</v>
+      </c>
+      <c r="P37">
+        <v>0.0843810896010108</v>
+      </c>
+      <c r="Q37">
+        <v>0.181674503131</v>
+      </c>
+      <c r="R37">
+        <v>0.726698012524</v>
+      </c>
+      <c r="S37">
+        <v>0.007216644112058436</v>
+      </c>
+      <c r="T37">
+        <v>0.003806010622177955</v>
       </c>
     </row>
   </sheetData>
